--- a/PEA_MEX_pp.xlsx
+++ b/PEA_MEX_pp.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
